--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-eu\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5BDB8-164C-4260-8BDD-310BFE54C72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB0351-311A-4D66-9EBD-A496CBB553FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="1410" windowWidth="33360" windowHeight="21225" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>The U.S. EPS does not assume any improvement in pollutant emissions intensities over time,</t>
   </si>
   <si>
-    <t>so all rates are set to zero.</t>
-  </si>
-  <si>
     <t>kerosene</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Improvement Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>so all rates are set to zero. The EU model will carry the same assumption.</t>
   </si>
 </sst>
 </file>
@@ -701,35 +701,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,99 +739,99 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -847,22 +849,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.40625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -883,19 +885,19 @@
         <v>23</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -930,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -965,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1330,23 +1332,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -1370,16 +1372,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1814,23 +1816,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -1854,16 +1856,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2298,23 +2300,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2338,16 +2340,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2782,23 +2784,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2822,16 +2824,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3266,23 +3268,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -3306,16 +3308,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3750,23 +3752,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -3790,16 +3792,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4234,27 +4236,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1328125" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>32</v>
@@ -4296,16 +4298,16 @@
         <v>35</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4835,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4956,22 +4958,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -4992,19 +4994,19 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5284,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>

--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-eu\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB0351-311A-4D66-9EBD-A496CBB553FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3BD0C-A423-4B33-9496-E16F34203A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
   <si>
     <t>Source:</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>jet fuel</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -221,6 +218,9 @@
     <t>The U.S. EPS does not assume any improvement in pollutant emissions intensities over time,</t>
   </si>
   <si>
+    <t>so all rates are set to zero.</t>
+  </si>
+  <si>
     <t>kerosene</t>
   </si>
   <si>
@@ -254,7 +254,31 @@
     <t>Improvement Rate (dimensionless)</t>
   </si>
   <si>
-    <t>so all rates are set to zero. The EU model will carry the same assumption.</t>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -328,23 +352,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,9 +436,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,26 +471,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,26 +506,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -701,137 +684,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -849,55 +830,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -932,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -967,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1332,56 +1313,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.40625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1626,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1816,22 +1797,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.40625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1852,20 +1833,20 @@
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2300,56 +2281,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="4" max="4" width="21.40625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2419,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2559,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2629,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2699,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2784,56 +2765,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.40625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2868,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2903,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3078,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3148,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3183,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3218,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3268,28 +3249,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.40625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3298,26 +3279,26 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3352,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3387,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3422,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3457,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3492,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3527,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3562,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3597,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3667,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3752,31 +3733,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.40625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3788,20 +3769,20 @@
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3836,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3871,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3941,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4011,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4046,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4081,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4116,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4151,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4186,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4232,82 +4213,110 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.1328125" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1328125" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="S1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4359,8 +4368,32 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4412,8 +4445,32 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4465,8 +4522,32 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4518,8 +4599,32 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4571,8 +4676,32 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4624,8 +4753,32 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4677,8 +4830,32 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4730,8 +4907,32 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4783,8 +4984,32 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4836,8 +5061,32 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4889,8 +5138,32 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4940,6 +5213,30 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0</v>
       </c>
     </row>
@@ -4958,21 +5255,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24.7265625" customWidth="1"/>
-    <col min="10" max="10" width="22.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5006,7 +5303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5041,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5076,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5146,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5181,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5216,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5251,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5321,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5356,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5391,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>

--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\PEIIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-eu\InputData\fuels\PEIIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E3BD0C-A423-4B33-9496-E16F34203A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB0351-311A-4D66-9EBD-A496CBB553FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
   <si>
     <t>Source:</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>jet fuel</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>geothermal</t>
@@ -218,9 +221,6 @@
     <t>The U.S. EPS does not assume any improvement in pollutant emissions intensities over time,</t>
   </si>
   <si>
-    <t>so all rates are set to zero.</t>
-  </si>
-  <si>
     <t>kerosene</t>
   </si>
   <si>
@@ -254,31 +254,7 @@
     <t>Improvement Rate (dimensionless)</t>
   </si>
   <si>
-    <t>natural gas steam turbine</t>
-  </si>
-  <si>
-    <t>natural gas combined cycle</t>
-  </si>
-  <si>
-    <t>hard coal w CCS</t>
-  </si>
-  <si>
-    <t>natural gas combined cycle w CCS</t>
-  </si>
-  <si>
-    <t>biomass w CCS</t>
-  </si>
-  <si>
-    <t>lignite w CCS</t>
-  </si>
-  <si>
-    <t>small modular reactor</t>
-  </si>
-  <si>
-    <t>hydrogen combustion turbine</t>
-  </si>
-  <si>
-    <t>hydrogen combined cycle</t>
+    <t>so all rates are set to zero. The EU model will carry the same assumption.</t>
   </si>
 </sst>
 </file>
@@ -352,16 +328,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,9 +419,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +454,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +506,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,135 +701,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -830,55 +849,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.40625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -913,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -948,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1313,56 +1332,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1797,22 +1816,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1833,20 +1852,20 @@
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2196,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2281,56 +2300,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2435,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2540,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2575,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2765,56 +2784,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2884,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2989,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3094,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3164,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3249,28 +3268,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3279,26 +3298,26 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3508,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3543,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3733,31 +3752,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3769,20 +3788,20 @@
       <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3817,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3852,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3922,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3957,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3992,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4027,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4097,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4213,110 +4232,82 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="24" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1328125" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="N1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4368,32 +4359,8 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4445,32 +4412,8 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4522,32 +4465,8 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4599,32 +4518,8 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4676,32 +4571,8 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4753,32 +4624,8 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4830,32 +4677,8 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4907,32 +4730,8 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4984,32 +4783,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5061,32 +4836,8 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5138,32 +4889,8 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5213,30 +4940,6 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
         <v>0</v>
       </c>
     </row>
@@ -5255,21 +4958,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.86328125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5303,7 +5006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5338,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5373,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5408,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5443,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5478,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5513,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5548,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5583,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5618,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5653,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5688,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
